--- a/public/sampleExcel/debit_note_emails_sample.xlsx
+++ b/public/sampleExcel/debit_note_emails_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vun.thy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F1686-D20A-4454-B3C9-5B0E1FF14A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDECE0-D2D2-405F-ACC0-22155AB6CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>department</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>cc_to_email</t>
+  </si>
+  <si>
+    <t>receiver_name</t>
   </si>
 </sst>
 </file>
@@ -365,21 +368,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,9 +391,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/sampleExcel/debit_note_emails_sample.xlsx
+++ b/public/sampleExcel/debit_note_emails_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\prodsystem\public\sampleExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDECE0-D2D2-405F-ACC0-22155AB6CF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9DFA8-6824-43F8-BD13-49AC44F0D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>department</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>receiver_name</t>
+  </si>
+  <si>
+    <t>campus</t>
   </si>
 </sst>
 </file>
@@ -368,22 +371,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,12 +395,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/public/sampleExcel/debit_note_emails_sample.xlsx
+++ b/public/sampleExcel/debit_note_emails_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prodsystem\public\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9DFA8-6824-43F8-BD13-49AC44F0D462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BE176-5872-40B5-B05D-94ECF2A0A2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
